--- a/WineSampleFile.xlsx
+++ b/WineSampleFile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielsanson/PycharmProjects/PythonProjectCoursera/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielsanson/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0217B9-36BC-1B45-AB86-75DE36FBD009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EC1993C-F7AE-EB46-9C35-A594C1B265CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="20220" xr2:uid="{790BDFE8-A188-D842-85DE-434374DAA16C}"/>
+    <workbookView xWindow="80" yWindow="740" windowWidth="19200" windowHeight="17520" xr2:uid="{790BDFE8-A188-D842-85DE-434374DAA16C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample Excel" sheetId="30" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="92">
   <si>
     <t>Vino</t>
   </si>
@@ -312,6 +312,9 @@
   </si>
   <si>
     <t>Brickmason</t>
+  </si>
+  <si>
+    <t>Rasgon</t>
   </si>
 </sst>
 </file>
@@ -830,9 +833,6 @@
     <xf numFmtId="0" fontId="13" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -851,6 +851,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1167,10 +1170,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3183EC-6441-1A41-AAC1-E7A35505FF8F}">
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2241,283 +2244,318 @@
       <c r="N25" s="43"/>
     </row>
     <row r="26" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A26" s="73" t="s">
+      <c r="A26" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="B26" s="74">
+      <c r="B26" s="73">
         <v>2021</v>
       </c>
-      <c r="C26" s="78">
+      <c r="C26" s="77">
         <v>4.22</v>
       </c>
-      <c r="D26" s="75">
-        <v>1</v>
-      </c>
-      <c r="E26" s="75">
+      <c r="D26" s="74">
+        <v>1</v>
+      </c>
+      <c r="E26" s="74">
         <v>3.5</v>
       </c>
-      <c r="F26" s="79">
+      <c r="F26" s="78">
         <v>12.5</v>
       </c>
-      <c r="G26" s="79">
+      <c r="G26" s="78">
         <v>5.4</v>
       </c>
-      <c r="H26" s="79">
+      <c r="H26" s="78">
         <v>3.7</v>
       </c>
-      <c r="I26" s="79">
+      <c r="I26" s="78">
         <v>2.2999999999999998</v>
       </c>
-      <c r="J26" s="79">
+      <c r="J26" s="78">
         <v>3.9</v>
       </c>
-      <c r="K26" s="76">
+      <c r="K26" s="75">
         <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A27" s="73" t="s">
+      <c r="A27" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="74">
+      <c r="B27" s="73">
         <v>2018</v>
       </c>
-      <c r="C27" s="78">
+      <c r="C27" s="77">
         <v>3.22</v>
       </c>
-      <c r="D27" s="75">
-        <v>1</v>
-      </c>
-      <c r="E27" s="75">
+      <c r="D27" s="74">
+        <v>1</v>
+      </c>
+      <c r="E27" s="74">
         <v>3</v>
       </c>
-      <c r="F27" s="79">
+      <c r="F27" s="78">
         <v>12</v>
       </c>
-      <c r="G27" s="79">
-        <v>0</v>
-      </c>
-      <c r="H27" s="79">
+      <c r="G27" s="78">
+        <v>0</v>
+      </c>
+      <c r="H27" s="78">
         <v>1.9</v>
       </c>
-      <c r="I27" s="79">
+      <c r="I27" s="78">
         <v>0.6</v>
       </c>
-      <c r="J27" s="79">
+      <c r="J27" s="78">
         <v>7.4</v>
       </c>
-      <c r="K27" s="76">
+      <c r="K27" s="75">
         <v>8.5</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A28" s="73" t="s">
+      <c r="A28" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="B28" s="74">
+      <c r="B28" s="73">
         <v>2019</v>
       </c>
-      <c r="C28" s="78">
+      <c r="C28" s="77">
         <v>3.88</v>
       </c>
-      <c r="D28" s="75">
-        <v>1</v>
-      </c>
-      <c r="E28" s="75">
+      <c r="D28" s="74">
+        <v>1</v>
+      </c>
+      <c r="E28" s="74">
         <v>3.3</v>
       </c>
-      <c r="F28" s="79">
+      <c r="F28" s="78">
         <v>13.5</v>
       </c>
-      <c r="G28" s="79">
+      <c r="G28" s="78">
         <v>7.2</v>
       </c>
-      <c r="H28" s="79">
+      <c r="H28" s="78">
         <v>5.6</v>
       </c>
-      <c r="I28" s="79">
+      <c r="I28" s="78">
         <v>0.2</v>
       </c>
-      <c r="J28" s="79">
+      <c r="J28" s="78">
         <v>3.5</v>
       </c>
-      <c r="K28" s="76">
+      <c r="K28" s="75">
         <v>7.8</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A29" s="73" t="s">
+      <c r="A29" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="B29" s="77">
+      <c r="B29" s="76">
         <v>2020</v>
       </c>
-      <c r="C29" s="78">
+      <c r="C29" s="77">
         <v>6.92</v>
       </c>
-      <c r="D29" s="75">
-        <v>0</v>
-      </c>
-      <c r="E29" s="75">
+      <c r="D29" s="74">
+        <v>0</v>
+      </c>
+      <c r="E29" s="74">
         <v>3.6</v>
       </c>
-      <c r="F29" s="79">
+      <c r="F29" s="78">
         <v>14</v>
       </c>
-      <c r="G29" s="79">
+      <c r="G29" s="78">
         <v>6.1</v>
       </c>
-      <c r="H29" s="79">
+      <c r="H29" s="78">
         <v>2.4</v>
       </c>
-      <c r="I29" s="79">
+      <c r="I29" s="78">
         <v>1.3</v>
       </c>
-      <c r="J29" s="79">
+      <c r="J29" s="78">
         <v>3.5</v>
       </c>
-      <c r="K29" s="76">
+      <c r="K29" s="75">
         <v>9.5</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A30" s="73" t="s">
+      <c r="A30" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="77">
+      <c r="B30" s="76">
         <v>2019</v>
       </c>
-      <c r="C30" s="78">
+      <c r="C30" s="77">
         <v>16</v>
       </c>
-      <c r="D30" s="75">
-        <v>0</v>
-      </c>
-      <c r="E30" s="75">
+      <c r="D30" s="74">
+        <v>0</v>
+      </c>
+      <c r="E30" s="74">
         <v>3.9</v>
       </c>
-      <c r="F30" s="79">
+      <c r="F30" s="78">
         <v>13.5</v>
       </c>
-      <c r="G30" s="79">
+      <c r="G30" s="78">
         <v>5.2</v>
       </c>
-      <c r="H30" s="79">
+      <c r="H30" s="78">
         <v>4</v>
       </c>
-      <c r="I30" s="79">
+      <c r="I30" s="78">
         <v>2.2999999999999998</v>
       </c>
-      <c r="J30" s="79">
+      <c r="J30" s="78">
         <v>3.7</v>
       </c>
-      <c r="K30" s="76">
+      <c r="K30" s="75">
         <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A31" s="73" t="s">
+      <c r="A31" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="B31" s="77">
+      <c r="B31" s="76">
         <v>2019</v>
       </c>
-      <c r="C31" s="78">
+      <c r="C31" s="77">
         <v>21</v>
       </c>
-      <c r="D31" s="75">
-        <v>1</v>
-      </c>
-      <c r="E31" s="75">
+      <c r="D31" s="74">
+        <v>1</v>
+      </c>
+      <c r="E31" s="74">
         <v>3.8</v>
       </c>
-      <c r="F31" s="79">
+      <c r="F31" s="78">
         <v>15.5</v>
       </c>
-      <c r="G31" s="79">
+      <c r="G31" s="78">
         <v>8</v>
       </c>
-      <c r="H31" s="79">
+      <c r="H31" s="78">
         <v>3.8</v>
       </c>
-      <c r="I31" s="79">
+      <c r="I31" s="78">
         <v>0.6</v>
       </c>
-      <c r="J31" s="79">
+      <c r="J31" s="78">
         <v>4.2</v>
       </c>
-      <c r="K31" s="76">
+      <c r="K31" s="75">
         <v>7.8</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A32" s="73" t="s">
+      <c r="A32" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="B32" s="77">
+      <c r="B32" s="76">
         <v>2019</v>
       </c>
-      <c r="C32" s="78">
+      <c r="C32" s="77">
         <v>19.95</v>
       </c>
-      <c r="D32" s="75">
-        <v>1</v>
-      </c>
-      <c r="E32" s="75">
+      <c r="D32" s="74">
+        <v>1</v>
+      </c>
+      <c r="E32" s="74">
         <v>3.7</v>
       </c>
-      <c r="F32" s="79">
+      <c r="F32" s="78">
         <v>13.5</v>
       </c>
-      <c r="G32" s="79">
+      <c r="G32" s="78">
         <v>6.3</v>
       </c>
-      <c r="H32" s="79">
+      <c r="H32" s="78">
         <v>4.5999999999999996</v>
       </c>
-      <c r="I32" s="79">
-        <v>0</v>
-      </c>
-      <c r="J32" s="79">
+      <c r="I32" s="78">
+        <v>0</v>
+      </c>
+      <c r="J32" s="78">
         <v>4.2</v>
       </c>
-      <c r="K32" s="76">
+      <c r="K32" s="75">
         <v>8.1</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A33" s="73" t="s">
+      <c r="A33" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="B33" s="77">
+      <c r="B33" s="76">
         <v>2017</v>
       </c>
-      <c r="C33" s="78">
+      <c r="C33" s="77">
         <v>15.99</v>
       </c>
-      <c r="D33" s="75">
-        <v>0</v>
-      </c>
-      <c r="E33" s="75">
+      <c r="D33" s="74">
+        <v>0</v>
+      </c>
+      <c r="E33" s="74">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F33" s="79">
+      <c r="F33" s="78">
         <v>14.9</v>
       </c>
-      <c r="G33" s="79">
+      <c r="G33" s="78">
         <v>8</v>
       </c>
-      <c r="H33" s="79">
+      <c r="H33" s="78">
         <v>5</v>
       </c>
-      <c r="I33" s="79">
+      <c r="I33" s="78">
         <v>1.2</v>
       </c>
-      <c r="J33" s="79">
+      <c r="J33" s="78">
         <v>5.7</v>
       </c>
-      <c r="K33" s="76">
+      <c r="K33" s="75">
         <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A34" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34" s="76">
+        <v>2022</v>
+      </c>
+      <c r="C34" s="77">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="D34" s="74">
+        <v>1</v>
+      </c>
+      <c r="E34" s="74">
+        <v>3.7</v>
+      </c>
+      <c r="F34" s="78">
+        <v>12.5</v>
+      </c>
+      <c r="G34" s="78">
+        <v>6.9</v>
+      </c>
+      <c r="H34" s="78">
+        <v>5.4</v>
+      </c>
+      <c r="I34" s="78">
+        <v>1.7</v>
+      </c>
+      <c r="J34" s="78">
+        <v>3.2</v>
+      </c>
+      <c r="K34" s="75">
+        <v>6.5</v>
       </c>
     </row>
   </sheetData>
@@ -4373,10 +4411,10 @@
     <row r="26" spans="1:22" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="50"/>
       <c r="I26" s="46"/>
-      <c r="J26" s="72"/>
-      <c r="K26" s="72"/>
-      <c r="L26" s="72"/>
-      <c r="M26" s="72"/>
+      <c r="J26" s="79"/>
+      <c r="K26" s="79"/>
+      <c r="L26" s="79"/>
+      <c r="M26" s="79"/>
     </row>
     <row r="27" spans="1:22" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="50"/>
